--- a/Concevoir une base de données/Dictionnaire de données/Dictionnaire de données.xlsx
+++ b/Concevoir une base de données/Dictionnaire de données/Dictionnaire de données.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>CODE</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>remise</t>
+  </si>
+  <si>
+    <t>statut_client</t>
+  </si>
+  <si>
+    <t>le statut du client (particulier ou professionnel)</t>
+  </si>
+  <si>
+    <t>VARCHAR (50)</t>
   </si>
 </sst>
 </file>
@@ -712,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1219,15 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
